--- a/media/files/2017/04/16/17/417.xlsx
+++ b/media/files/2017/04/16/17/417.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keenking\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FeigeDownload\EffectCamera 2017-04-24 16-33-14\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -90,10 +90,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>福彩双色球</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>快乐至上</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -769,6 +765,10 @@
   </si>
   <si>
     <t>0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>(&gt;_&lt;)110</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1388,10 +1388,10 @@
   <dimension ref="A1:Q85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" sqref="A1:M85"/>
+      <selection pane="bottomRight" activeCell="M4" sqref="M4:M85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1410,7 +1410,7 @@
     <row r="1" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="18"/>
       <c r="B1" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
@@ -1430,34 +1430,34 @@
         <v>0</v>
       </c>
       <c r="C2" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="E2" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="13" t="s">
+      <c r="H2" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>62</v>
-      </c>
       <c r="K2" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M2" s="13" t="s">
         <v>1</v>
@@ -1469,34 +1469,34 @@
         <v>4</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F3" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="15" t="s">
-        <v>58</v>
-      </c>
       <c r="H3" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M3" s="15" t="s">
         <v>2</v>
@@ -1507,20 +1507,20 @@
     </row>
     <row r="4" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C4" s="10">
         <v>50</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="22" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="F4" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G4" s="9">
         <v>5</v>
@@ -1529,35 +1529,33 @@
       <c r="I4" s="21">
         <v>10</v>
       </c>
-      <c r="J4" s="9">
-        <v>10</v>
-      </c>
+      <c r="J4" s="9"/>
       <c r="K4" s="9">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="L4" s="9">
         <v>30</v>
       </c>
       <c r="M4" s="4">
         <f>SUM(C4:L4)</f>
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="8"/>
     </row>
     <row r="5" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="C5" s="10">
         <v>50</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F5" s="9">
         <v>25</v>
@@ -1567,35 +1565,33 @@
       <c r="I5" s="21">
         <v>10</v>
       </c>
-      <c r="J5" s="9">
-        <v>10</v>
-      </c>
+      <c r="J5" s="9"/>
       <c r="K5" s="9">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="L5" s="9">
         <v>30</v>
       </c>
       <c r="M5" s="4">
         <f>SUM(C5:L5)</f>
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="8"/>
     </row>
     <row r="6" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="20">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="C6" s="10">
         <v>50</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="22" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="F6" s="9">
         <v>25</v>
@@ -1607,103 +1603,113 @@
       <c r="I6" s="21">
         <v>10</v>
       </c>
-      <c r="J6" s="9"/>
+      <c r="J6" s="9">
+        <v>10</v>
+      </c>
       <c r="K6" s="9">
-        <v>60</v>
-      </c>
-      <c r="L6" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="L6" s="9">
+        <v>30</v>
+      </c>
       <c r="M6" s="4">
         <f>SUM(C6:L6)</f>
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="8"/>
     </row>
     <row r="7" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>14</v>
+        <v>182</v>
       </c>
       <c r="C7" s="10">
         <v>50</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="22" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="F7" s="9">
-        <v>25</v>
-      </c>
-      <c r="G7" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="G7" s="9">
+        <v>5</v>
+      </c>
       <c r="H7" s="9"/>
       <c r="I7" s="21">
         <v>10</v>
       </c>
-      <c r="J7" s="9"/>
+      <c r="J7" s="9">
+        <v>10</v>
+      </c>
       <c r="K7" s="9">
-        <v>60</v>
-      </c>
-      <c r="L7" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="L7" s="9">
+        <v>30</v>
+      </c>
       <c r="M7" s="4">
         <f>SUM(C7:L7)</f>
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="8"/>
     </row>
     <row r="8" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="C8" s="10">
         <v>50</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="22" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="F8" s="9">
-        <v>20</v>
-      </c>
-      <c r="G8" s="9">
-        <v>5</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="21">
         <v>10</v>
       </c>
       <c r="J8" s="9">
-        <v>15</v>
-      </c>
-      <c r="K8" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="K8" s="9">
+        <v>30</v>
+      </c>
       <c r="L8" s="9">
         <v>30</v>
       </c>
       <c r="M8" s="4">
         <f>SUM(C8:L8)</f>
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="8"/>
     </row>
     <row r="9" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="20">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C9" s="10">
         <v>50</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F9" s="9">
         <v>25</v>
@@ -1715,36 +1721,36 @@
       <c r="I9" s="21">
         <v>10</v>
       </c>
-      <c r="J9" s="9">
-        <v>10</v>
-      </c>
-      <c r="K9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9">
+        <v>30</v>
+      </c>
       <c r="L9" s="9">
         <v>30</v>
       </c>
       <c r="M9" s="4">
         <f>SUM(C9:L9)</f>
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="8"/>
     </row>
     <row r="10" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="20">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="C10" s="10">
         <v>50</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="22" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="F10" s="9">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G10" s="9">
         <v>5</v>
@@ -1753,36 +1759,34 @@
       <c r="I10" s="21">
         <v>10</v>
       </c>
-      <c r="J10" s="9">
-        <v>10</v>
-      </c>
+      <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9">
         <v>30</v>
       </c>
       <c r="M10" s="4">
         <f>SUM(C10:L10)</f>
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="8"/>
     </row>
     <row r="11" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="20">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C11" s="10">
         <v>50</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="22" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="F11" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G11" s="9">
         <v>5</v>
@@ -1791,31 +1795,33 @@
       <c r="I11" s="21">
         <v>10</v>
       </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9">
+      <c r="J11" s="9">
+        <v>15</v>
+      </c>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9">
         <v>30</v>
       </c>
-      <c r="L11" s="9"/>
       <c r="M11" s="4">
         <f>SUM(C11:L11)</f>
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="8"/>
     </row>
     <row r="12" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="20">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C12" s="10">
         <v>50</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="22" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="F12" s="9">
         <v>25</v>
@@ -1827,34 +1833,36 @@
       <c r="I12" s="21">
         <v>10</v>
       </c>
-      <c r="J12" s="9"/>
+      <c r="J12" s="9">
+        <v>10</v>
+      </c>
       <c r="K12" s="9"/>
       <c r="L12" s="9">
         <v>30</v>
       </c>
       <c r="M12" s="4">
         <f>SUM(C12:L12)</f>
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="8"/>
     </row>
     <row r="13" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="20">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="C13" s="10">
         <v>50</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="22" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="F13" s="9">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G13" s="9">
         <v>5</v>
@@ -1865,10 +1873,12 @@
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
+      <c r="L13" s="9">
+        <v>30</v>
+      </c>
       <c r="M13" s="4">
         <f>SUM(C13:L13)</f>
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="8"/>
@@ -1878,14 +1888,14 @@
         <v>11</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" s="10">
         <v>50</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F14" s="9">
         <v>50</v>
@@ -1919,7 +1929,7 @@
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F15" s="9">
         <v>50</v>
@@ -1946,14 +1956,14 @@
         <v>13</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="10">
         <v>50</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F16" s="9">
         <v>50</v>
@@ -1980,14 +1990,14 @@
         <v>14</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C17" s="10">
         <v>50</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F17" s="9">
         <v>20</v>
@@ -2016,14 +2026,14 @@
         <v>15</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="10">
         <v>50</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F18" s="9">
         <v>20</v>
@@ -2057,7 +2067,7 @@
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F19" s="9">
         <v>20</v>
@@ -2084,14 +2094,14 @@
         <v>17</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="10">
         <v>50</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F20" s="9">
         <v>10</v>
@@ -2120,14 +2130,14 @@
         <v>18</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="10">
         <v>50</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F21" s="9">
         <v>10</v>
@@ -2156,14 +2166,14 @@
         <v>19</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C22" s="10">
         <v>50</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F22" s="9">
         <v>25</v>
@@ -2192,14 +2202,14 @@
         <v>20</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C23" s="10">
         <v>50</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F23" s="9">
         <v>25</v>
@@ -2228,14 +2238,14 @@
         <v>21</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="10">
         <v>50</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F24" s="9">
         <v>25</v>
@@ -2264,14 +2274,14 @@
         <v>22</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="10">
         <v>0</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F25" s="9">
         <v>50</v>
@@ -2297,15 +2307,17 @@
     </row>
     <row r="26" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="20">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" s="10"/>
+        <v>3</v>
+      </c>
+      <c r="C26" s="10">
+        <v>50</v>
+      </c>
       <c r="D26" s="10"/>
       <c r="E26" s="22" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F26" s="9">
         <v>20</v>
@@ -2315,49 +2327,49 @@
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="21">
-        <v>5</v>
-      </c>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9">
-        <v>30</v>
-      </c>
-      <c r="L26" s="9">
-        <v>30</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="J26" s="9">
+        <v>10</v>
+      </c>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
       <c r="M26" s="4">
         <f>SUM(C26:L26)</f>
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P26" s="7"/>
       <c r="Q26" s="8"/>
     </row>
     <row r="27" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="20">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="10">
-        <v>50</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="C27" s="10"/>
       <c r="D27" s="10"/>
       <c r="E27" s="22" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="F27" s="9">
-        <v>25</v>
-      </c>
-      <c r="G27" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="G27" s="9">
+        <v>5</v>
+      </c>
       <c r="H27" s="9"/>
       <c r="I27" s="21">
         <v>5</v>
       </c>
-      <c r="J27" s="9">
-        <v>10</v>
-      </c>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9">
+        <v>30</v>
+      </c>
+      <c r="L27" s="9">
+        <v>30</v>
+      </c>
       <c r="M27" s="4">
         <f>SUM(C27:L27)</f>
         <v>90</v>
@@ -2367,29 +2379,29 @@
     </row>
     <row r="28" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="20">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C28" s="10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="22" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="F28" s="9">
-        <v>50</v>
-      </c>
-      <c r="G28" s="9">
-        <v>5</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="21">
         <v>5</v>
       </c>
-      <c r="J28" s="9"/>
+      <c r="J28" s="9">
+        <v>10</v>
+      </c>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
       <c r="M28" s="4">
@@ -2401,31 +2413,31 @@
     </row>
     <row r="29" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="20">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="C29" s="10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="22" t="s">
-        <v>182</v>
+        <v>93</v>
       </c>
       <c r="F29" s="9">
-        <v>0</v>
-      </c>
-      <c r="G29" s="9"/>
+        <v>50</v>
+      </c>
+      <c r="G29" s="9">
+        <v>5</v>
+      </c>
       <c r="H29" s="9"/>
       <c r="I29" s="21">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
-      <c r="L29" s="9">
-        <v>30</v>
-      </c>
+      <c r="L29" s="9"/>
       <c r="M29" s="4">
         <f>SUM(C29:L29)</f>
         <v>90</v>
@@ -2435,31 +2447,31 @@
     </row>
     <row r="30" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="20">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="C30" s="10">
         <v>50</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="22" t="s">
-        <v>104</v>
+        <v>181</v>
       </c>
       <c r="F30" s="9">
-        <v>25</v>
-      </c>
-      <c r="G30" s="9">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="21">
         <v>10</v>
       </c>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
+      <c r="L30" s="9">
+        <v>30</v>
+      </c>
       <c r="M30" s="4">
         <f>SUM(C30:L30)</f>
         <v>90</v>
@@ -2469,20 +2481,20 @@
     </row>
     <row r="31" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="20">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C31" s="10">
         <v>50</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="22" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="F31" s="9">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G31" s="9">
         <v>5</v>
@@ -2491,9 +2503,7 @@
       <c r="I31" s="21">
         <v>10</v>
       </c>
-      <c r="J31" s="9">
-        <v>10</v>
-      </c>
+      <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
       <c r="M31" s="4">
@@ -2505,56 +2515,58 @@
     </row>
     <row r="32" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="20">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C32" s="10">
         <v>50</v>
       </c>
       <c r="D32" s="10"/>
       <c r="E32" s="22" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="F32" s="9">
-        <v>25</v>
-      </c>
-      <c r="G32" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="G32" s="9">
+        <v>5</v>
+      </c>
       <c r="H32" s="9"/>
       <c r="I32" s="21">
         <v>10</v>
       </c>
-      <c r="J32" s="9"/>
+      <c r="J32" s="9">
+        <v>10</v>
+      </c>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
       <c r="M32" s="4">
         <f>SUM(C32:L32)</f>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P32" s="7"/>
       <c r="Q32" s="8"/>
     </row>
     <row r="33" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="20">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C33" s="10">
         <v>50</v>
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="22" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="F33" s="9">
-        <v>20</v>
-      </c>
-      <c r="G33" s="9">
-        <v>5</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G33" s="9"/>
       <c r="H33" s="9"/>
       <c r="I33" s="21">
         <v>10</v>
@@ -2571,17 +2583,17 @@
     </row>
     <row r="34" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="20">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C34" s="10">
         <v>50</v>
       </c>
       <c r="D34" s="10"/>
       <c r="E34" s="22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F34" s="9">
         <v>20</v>
@@ -2605,22 +2617,24 @@
     </row>
     <row r="35" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="20">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C35" s="10">
         <v>50</v>
       </c>
       <c r="D35" s="10"/>
       <c r="E35" s="22" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="F35" s="9">
-        <v>25</v>
-      </c>
-      <c r="G35" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="G35" s="9">
+        <v>5</v>
+      </c>
       <c r="H35" s="9"/>
       <c r="I35" s="21">
         <v>10</v>
@@ -2637,17 +2651,17 @@
     </row>
     <row r="36" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="20">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="C36" s="10">
         <v>50</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="22" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F36" s="9">
         <v>25</v>
@@ -2655,31 +2669,31 @@
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="21">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
       <c r="M36" s="4">
         <f>SUM(C36:L36)</f>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P36" s="7"/>
       <c r="Q36" s="8"/>
     </row>
     <row r="37" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="20">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C37" s="10">
         <v>50</v>
       </c>
       <c r="D37" s="10"/>
       <c r="E37" s="22" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F37" s="9">
         <v>25</v>
@@ -2701,27 +2715,25 @@
     </row>
     <row r="38" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="20">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="C38" s="10">
         <v>50</v>
       </c>
       <c r="D38" s="10"/>
       <c r="E38" s="22" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="F38" s="9">
-        <v>15</v>
-      </c>
-      <c r="G38" s="9">
-        <v>5</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="21">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
@@ -2735,57 +2747,59 @@
     </row>
     <row r="39" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="20">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="C39" s="10">
         <v>50</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="22" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="F39" s="9">
-        <v>20</v>
-      </c>
-      <c r="G39" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="G39" s="9">
+        <v>5</v>
+      </c>
       <c r="H39" s="9"/>
       <c r="I39" s="21">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
       <c r="M39" s="4">
         <f>SUM(C39:L39)</f>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="P39" s="7"/>
       <c r="Q39" s="8"/>
     </row>
     <row r="40" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="20">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C40" s="10">
         <v>50</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="22" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="F40" s="9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
       <c r="I40" s="21">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
@@ -2799,17 +2813,17 @@
     </row>
     <row r="41" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="20">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="C41" s="10">
         <v>50</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="22" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F41" s="9">
         <v>15</v>
@@ -2817,45 +2831,41 @@
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
       <c r="I41" s="21">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
       <c r="M41" s="4">
         <f>SUM(C41:L41)</f>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="P41" s="7"/>
       <c r="Q41" s="8"/>
     </row>
     <row r="42" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42" s="20">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C42" s="10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D42" s="10"/>
       <c r="E42" s="22" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="F42" s="9">
-        <v>20</v>
-      </c>
-      <c r="G42" s="9">
-        <v>5</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G42" s="9"/>
       <c r="H42" s="9"/>
       <c r="I42" s="21">
         <v>5</v>
       </c>
-      <c r="J42" s="9">
-        <v>10</v>
-      </c>
+      <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
       <c r="M42" s="4">
@@ -2865,27 +2875,31 @@
     </row>
     <row r="43" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="20">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C43" s="10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D43" s="10"/>
       <c r="E43" s="22" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="F43" s="9">
-        <v>10</v>
-      </c>
-      <c r="G43" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="G43" s="9">
+        <v>5</v>
+      </c>
       <c r="H43" s="9"/>
       <c r="I43" s="21">
-        <v>10</v>
-      </c>
-      <c r="J43" s="9"/>
+        <v>5</v>
+      </c>
+      <c r="J43" s="9">
+        <v>10</v>
+      </c>
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
       <c r="M43" s="4">
@@ -2897,17 +2911,17 @@
     </row>
     <row r="44" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="20">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="C44" s="10">
         <v>50</v>
       </c>
       <c r="D44" s="10"/>
       <c r="E44" s="22" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F44" s="9">
         <v>10</v>
@@ -2915,29 +2929,29 @@
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
       <c r="I44" s="21">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
       <c r="M44" s="4">
         <f>SUM(C44:L44)</f>
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="20">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C45" s="10">
         <v>50</v>
       </c>
       <c r="D45" s="10"/>
       <c r="E45" s="22" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="F45" s="9">
         <v>10</v>
@@ -2957,25 +2971,25 @@
     </row>
     <row r="46" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46" s="20">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C46" s="10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D46" s="10"/>
       <c r="E46" s="22" t="s">
-        <v>111</v>
+        <v>165</v>
       </c>
       <c r="F46" s="9">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
       <c r="I46" s="21">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
@@ -2987,17 +3001,17 @@
     </row>
     <row r="47" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A47" s="20">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C47" s="10">
         <v>30</v>
       </c>
       <c r="D47" s="10"/>
       <c r="E47" s="22" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="F47" s="9">
         <v>25</v>
@@ -3005,36 +3019,34 @@
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
       <c r="I47" s="21">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
       <c r="M47" s="4">
         <f>SUM(C47:L47)</f>
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="20">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C48" s="10">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D48" s="10"/>
       <c r="E48" s="22" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="F48" s="9">
-        <v>50</v>
-      </c>
-      <c r="G48" s="9">
-        <v>5</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G48" s="9"/>
       <c r="H48" s="9"/>
       <c r="I48" s="21">
         <v>5</v>
@@ -3049,22 +3061,24 @@
     </row>
     <row r="49" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A49" s="20">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C49" s="10">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D49" s="10"/>
       <c r="E49" s="22" t="s">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="F49" s="9">
-        <v>20</v>
-      </c>
-      <c r="G49" s="9"/>
+        <v>50</v>
+      </c>
+      <c r="G49" s="9">
+        <v>5</v>
+      </c>
       <c r="H49" s="9"/>
       <c r="I49" s="21">
         <v>5</v>
@@ -3074,29 +3088,27 @@
       <c r="L49" s="9"/>
       <c r="M49" s="4">
         <f>SUM(C49:L49)</f>
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A50" s="20">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C50" s="10">
         <v>30</v>
       </c>
       <c r="D50" s="10"/>
       <c r="E50" s="22" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="F50" s="9">
-        <v>10</v>
-      </c>
-      <c r="G50" s="9">
-        <v>5</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G50" s="9"/>
       <c r="H50" s="9"/>
       <c r="I50" s="21">
         <v>5</v>
@@ -3106,27 +3118,29 @@
       <c r="L50" s="9"/>
       <c r="M50" s="4">
         <f>SUM(C50:L50)</f>
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A51" s="20">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C51" s="10">
         <v>30</v>
       </c>
       <c r="D51" s="10"/>
       <c r="E51" s="22" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F51" s="9">
         <v>10</v>
       </c>
-      <c r="G51" s="9"/>
+      <c r="G51" s="9">
+        <v>5</v>
+      </c>
       <c r="H51" s="9"/>
       <c r="I51" s="21">
         <v>5</v>
@@ -3136,24 +3150,24 @@
       <c r="L51" s="9"/>
       <c r="M51" s="4">
         <f>SUM(C51:L51)</f>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="P51" s="7"/>
       <c r="Q51" s="8"/>
     </row>
     <row r="52" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A52" s="20">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="C52" s="10">
         <v>30</v>
       </c>
       <c r="D52" s="10"/>
       <c r="E52" s="22" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="F52" s="9">
         <v>10</v>
@@ -3173,31 +3187,27 @@
     </row>
     <row r="53" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A53" s="20">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C53" s="10">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D53" s="10"/>
       <c r="E53" s="22" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="F53" s="9">
-        <v>20</v>
-      </c>
-      <c r="G53" s="9">
-        <v>5</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G53" s="9"/>
       <c r="H53" s="9"/>
       <c r="I53" s="21">
-        <v>10</v>
-      </c>
-      <c r="J53" s="9">
-        <v>10</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
       <c r="M53" s="4">
@@ -3209,18 +3219,20 @@
     </row>
     <row r="54" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A54" s="20">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C54" s="10"/>
+        <v>40</v>
+      </c>
+      <c r="C54" s="10">
+        <v>0</v>
+      </c>
       <c r="D54" s="10"/>
       <c r="E54" s="22" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="F54" s="9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G54" s="9">
         <v>5</v>
@@ -3236,29 +3248,29 @@
       <c r="L54" s="9"/>
       <c r="M54" s="4">
         <f>SUM(C54:L54)</f>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="P54" s="7"/>
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A55" s="20">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C55" s="10">
-        <v>0</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="C55" s="10"/>
       <c r="D55" s="10"/>
       <c r="E55" s="22" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F55" s="9">
-        <v>20</v>
-      </c>
-      <c r="G55" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="G55" s="9">
+        <v>5</v>
+      </c>
       <c r="H55" s="9"/>
       <c r="I55" s="21">
         <v>10</v>
@@ -3287,7 +3299,7 @@
       </c>
       <c r="D56" s="10"/>
       <c r="E56" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F56" s="9">
         <v>20</v>
@@ -3314,14 +3326,14 @@
         <v>54</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C57" s="10">
         <v>0</v>
       </c>
       <c r="D57" s="10"/>
       <c r="E57" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F57" s="9">
         <v>20</v>
@@ -3348,14 +3360,14 @@
         <v>55</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C58" s="10">
         <v>0</v>
       </c>
       <c r="D58" s="10"/>
       <c r="E58" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F58" s="9">
         <v>25</v>
@@ -3382,12 +3394,12 @@
         <v>56</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
       <c r="E59" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F59" s="9">
         <v>25</v>
@@ -3412,12 +3424,12 @@
         <v>57</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
       <c r="E60" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F60" s="9">
         <v>20</v>
@@ -3442,12 +3454,12 @@
         <v>58</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
       <c r="E61" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F61" s="9">
         <v>20</v>
@@ -3472,12 +3484,12 @@
         <v>59</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
       <c r="E62" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F62" s="9">
         <v>20</v>
@@ -3502,12 +3514,12 @@
         <v>60</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
       <c r="E63" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F63" s="9">
         <v>20</v>
@@ -3532,12 +3544,12 @@
         <v>61</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
       <c r="E64" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F64" s="9">
         <v>20</v>
@@ -3562,12 +3574,12 @@
         <v>62</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
       <c r="E65" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F65" s="9">
         <v>0</v>
@@ -3596,12 +3608,12 @@
         <v>63</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
       <c r="E66" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F66" s="9">
         <v>10</v>
@@ -3624,14 +3636,14 @@
         <v>64</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C67" s="10">
         <v>0</v>
       </c>
       <c r="D67" s="10"/>
       <c r="E67" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F67" s="9">
         <v>10</v>
@@ -3656,7 +3668,7 @@
         <v>65</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
@@ -3691,7 +3703,7 @@
       </c>
       <c r="D69" s="10"/>
       <c r="E69" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F69" s="9">
         <v>10</v>
@@ -3716,14 +3728,14 @@
         <v>67</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C70" s="10">
         <v>0</v>
       </c>
       <c r="D70" s="10"/>
       <c r="E70" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F70" s="9">
         <v>10</v>
@@ -3748,14 +3760,14 @@
         <v>68</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C71" s="10">
         <v>0</v>
       </c>
       <c r="D71" s="10"/>
       <c r="E71" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F71" s="9">
         <v>10</v>
@@ -3780,14 +3792,14 @@
         <v>69</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C72" s="10">
         <v>0</v>
       </c>
       <c r="D72" s="10"/>
       <c r="E72" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F72" s="9">
         <v>0</v>
@@ -3814,14 +3826,14 @@
         <v>70</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C73" s="10">
         <v>0</v>
       </c>
       <c r="D73" s="10"/>
       <c r="E73" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F73" s="9">
         <v>10</v>
@@ -3846,12 +3858,12 @@
         <v>71</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
       <c r="E74" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F74" s="9">
         <v>0</v>
@@ -3876,12 +3888,12 @@
         <v>72</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C75" s="10"/>
       <c r="D75" s="10"/>
       <c r="E75" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F75" s="9">
         <v>0</v>
@@ -3906,14 +3918,14 @@
         <v>73</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C76" s="10">
         <v>0</v>
       </c>
       <c r="D76" s="10"/>
       <c r="E76" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F76" s="9">
         <v>0</v>
@@ -3938,14 +3950,14 @@
         <v>74</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C77" s="10">
         <v>0</v>
       </c>
       <c r="D77" s="10"/>
       <c r="E77" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F77" s="9">
         <v>0</v>
@@ -3970,12 +3982,12 @@
         <v>75</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
       <c r="E78" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F78" s="9">
         <v>0</v>
@@ -3998,12 +4010,12 @@
         <v>76</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C79" s="10"/>
       <c r="D79" s="10"/>
       <c r="E79" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F79" s="9">
         <v>0</v>
@@ -4026,12 +4038,12 @@
         <v>77</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C80" s="10"/>
       <c r="D80" s="10"/>
       <c r="E80" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F80" s="9">
         <v>0</v>
@@ -4052,12 +4064,12 @@
         <v>78</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C81" s="10"/>
       <c r="D81" s="10"/>
       <c r="E81" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F81" s="9">
         <v>0</v>
@@ -4080,12 +4092,12 @@
         <v>79</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C82" s="10"/>
       <c r="D82" s="10"/>
       <c r="E82" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F82" s="9">
         <v>0</v>
@@ -4108,12 +4120,12 @@
         <v>80</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C83" s="10"/>
       <c r="D83" s="10"/>
       <c r="E83" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F83" s="9">
         <v>0</v>
@@ -4136,14 +4148,14 @@
         <v>81</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C84" s="10">
         <v>0</v>
       </c>
       <c r="D84" s="10"/>
       <c r="E84" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F84" s="9">
         <v>0</v>
@@ -4166,14 +4178,14 @@
         <v>82</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C85" s="10">
         <v>0</v>
       </c>
       <c r="D85" s="10"/>
       <c r="E85" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F85" s="9">
         <v>0</v>

--- a/media/files/2017/04/16/17/417.xlsx
+++ b/media/files/2017/04/16/17/417.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FeigeDownload\EffectCamera 2017-04-24 16-33-14\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\keenking.github.io\media\files\2017\04\16\17\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1391,7 +1391,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M4" sqref="M4:M85"/>
+      <selection pane="bottomRight" activeCell="M85" sqref="A1:M85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="4" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>8</v>
@@ -1537,7 +1537,7 @@
         <v>30</v>
       </c>
       <c r="M4" s="4">
-        <f>SUM(C4:L4)</f>
+        <f t="shared" ref="M4:M35" si="0">SUM(C4:L4)</f>
         <v>180</v>
       </c>
       <c r="P4" s="7"/>
@@ -1545,7 +1545,7 @@
     </row>
     <row r="5" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>13</v>
@@ -1573,7 +1573,7 @@
         <v>30</v>
       </c>
       <c r="M5" s="4">
-        <f>SUM(C5:L5)</f>
+        <f t="shared" si="0"/>
         <v>175</v>
       </c>
       <c r="P5" s="7"/>
@@ -1581,7 +1581,7 @@
     </row>
     <row r="6" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="20">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>108</v>
@@ -1613,7 +1613,7 @@
         <v>30</v>
       </c>
       <c r="M6" s="4">
-        <f>SUM(C6:L6)</f>
+        <f t="shared" si="0"/>
         <v>160</v>
       </c>
       <c r="P6" s="7"/>
@@ -1621,7 +1621,7 @@
     </row>
     <row r="7" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>182</v>
@@ -1653,7 +1653,7 @@
         <v>30</v>
       </c>
       <c r="M7" s="4">
-        <f>SUM(C7:L7)</f>
+        <f t="shared" si="0"/>
         <v>155</v>
       </c>
       <c r="P7" s="7"/>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="8" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>72</v>
@@ -1691,7 +1691,7 @@
         <v>30</v>
       </c>
       <c r="M8" s="4">
-        <f>SUM(C8:L8)</f>
+        <f t="shared" si="0"/>
         <v>155</v>
       </c>
       <c r="P8" s="7"/>
@@ -1699,7 +1699,7 @@
     </row>
     <row r="9" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="20">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>11</v>
@@ -1729,7 +1729,7 @@
         <v>30</v>
       </c>
       <c r="M9" s="4">
-        <f>SUM(C9:L9)</f>
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
       <c r="P9" s="7"/>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="10" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="20">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>71</v>
@@ -1765,7 +1765,7 @@
         <v>30</v>
       </c>
       <c r="M10" s="4">
-        <f>SUM(C10:L10)</f>
+        <f t="shared" si="0"/>
         <v>145</v>
       </c>
       <c r="P10" s="7"/>
@@ -1773,7 +1773,7 @@
     </row>
     <row r="11" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="20">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>5</v>
@@ -1803,7 +1803,7 @@
         <v>30</v>
       </c>
       <c r="M11" s="4">
-        <f>SUM(C11:L11)</f>
+        <f t="shared" si="0"/>
         <v>130</v>
       </c>
       <c r="P11" s="7"/>
@@ -1811,7 +1811,7 @@
     </row>
     <row r="12" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="20">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>24</v>
@@ -1841,7 +1841,7 @@
         <v>30</v>
       </c>
       <c r="M12" s="4">
-        <f>SUM(C12:L12)</f>
+        <f t="shared" si="0"/>
         <v>130</v>
       </c>
       <c r="P12" s="7"/>
@@ -1849,7 +1849,7 @@
     </row>
     <row r="13" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>16</v>
@@ -1877,7 +1877,7 @@
         <v>30</v>
       </c>
       <c r="M13" s="4">
-        <f>SUM(C13:L13)</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="P13" s="7"/>
@@ -1911,7 +1911,7 @@
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
       <c r="M14" s="4">
-        <f>SUM(C14:L14)</f>
+        <f t="shared" si="0"/>
         <v>115</v>
       </c>
       <c r="P14" s="7"/>
@@ -1945,7 +1945,7 @@
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="4">
-        <f>SUM(C15:L15)</f>
+        <f t="shared" si="0"/>
         <v>115</v>
       </c>
       <c r="P15" s="7"/>
@@ -1979,7 +1979,7 @@
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="4">
-        <f>SUM(C16:L16)</f>
+        <f t="shared" si="0"/>
         <v>115</v>
       </c>
       <c r="P16" s="7"/>
@@ -2015,7 +2015,7 @@
         <v>30</v>
       </c>
       <c r="M17" s="4">
-        <f>SUM(C17:L17)</f>
+        <f t="shared" si="0"/>
         <v>110</v>
       </c>
       <c r="P17" s="7"/>
@@ -2049,7 +2049,7 @@
         <v>30</v>
       </c>
       <c r="M18" s="4">
-        <f>SUM(C18:L18)</f>
+        <f t="shared" si="0"/>
         <v>105</v>
       </c>
       <c r="P18" s="7"/>
@@ -2083,7 +2083,7 @@
         <v>30</v>
       </c>
       <c r="M19" s="4">
-        <f>SUM(C19:L19)</f>
+        <f t="shared" si="0"/>
         <v>105</v>
       </c>
       <c r="P19" s="7"/>
@@ -2119,7 +2119,7 @@
       </c>
       <c r="L20" s="9"/>
       <c r="M20" s="4">
-        <f>SUM(C20:L20)</f>
+        <f t="shared" si="0"/>
         <v>105</v>
       </c>
       <c r="P20" s="7"/>
@@ -2155,7 +2155,7 @@
       </c>
       <c r="L21" s="9"/>
       <c r="M21" s="4">
-        <f>SUM(C21:L21)</f>
+        <f t="shared" si="0"/>
         <v>105</v>
       </c>
       <c r="P21" s="7"/>
@@ -2191,7 +2191,7 @@
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
       <c r="M22" s="4">
-        <f>SUM(C22:L22)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="P22" s="7"/>
@@ -2227,7 +2227,7 @@
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
       <c r="M23" s="4">
-        <f>SUM(C23:L23)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="P23" s="7"/>
@@ -2263,7 +2263,7 @@
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
       <c r="M24" s="4">
-        <f>SUM(C24:L24)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="P24" s="7"/>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="L25" s="9"/>
       <c r="M25" s="4">
-        <f>SUM(C25:L25)</f>
+        <f t="shared" si="0"/>
         <v>95</v>
       </c>
       <c r="P25" s="7"/>
@@ -2307,7 +2307,7 @@
     </row>
     <row r="26" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="20">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>3</v>
@@ -2335,7 +2335,7 @@
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="4">
-        <f>SUM(C26:L26)</f>
+        <f t="shared" si="0"/>
         <v>95</v>
       </c>
       <c r="P26" s="7"/>
@@ -2343,7 +2343,7 @@
     </row>
     <row r="27" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="20">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B27" s="16" t="s">
         <v>87</v>
@@ -2371,7 +2371,7 @@
         <v>30</v>
       </c>
       <c r="M27" s="4">
-        <f>SUM(C27:L27)</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="P27" s="7"/>
@@ -2379,7 +2379,7 @@
     </row>
     <row r="28" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="20">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" s="16" t="s">
         <v>35</v>
@@ -2405,7 +2405,7 @@
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
       <c r="M28" s="4">
-        <f>SUM(C28:L28)</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="P28" s="7"/>
@@ -2413,7 +2413,7 @@
     </row>
     <row r="29" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="20">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B29" s="16" t="s">
         <v>31</v>
@@ -2439,7 +2439,7 @@
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
       <c r="M29" s="4">
-        <f>SUM(C29:L29)</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="P29" s="7"/>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="30" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="20">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B30" s="16" t="s">
         <v>83</v>
@@ -2473,7 +2473,7 @@
         <v>30</v>
       </c>
       <c r="M30" s="4">
-        <f>SUM(C30:L30)</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="P30" s="7"/>
@@ -2481,7 +2481,7 @@
     </row>
     <row r="31" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="20">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B31" s="16" t="s">
         <v>19</v>
@@ -2507,7 +2507,7 @@
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
       <c r="M31" s="4">
-        <f>SUM(C31:L31)</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="P31" s="7"/>
@@ -2515,7 +2515,7 @@
     </row>
     <row r="32" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="20">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B32" s="16" t="s">
         <v>36</v>
@@ -2543,7 +2543,7 @@
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
       <c r="M32" s="4">
-        <f>SUM(C32:L32)</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="P32" s="7"/>
@@ -2551,7 +2551,7 @@
     </row>
     <row r="33" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="20">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B33" s="16" t="s">
         <v>27</v>
@@ -2575,7 +2575,7 @@
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
       <c r="M33" s="4">
-        <f>SUM(C33:L33)</f>
+        <f t="shared" si="0"/>
         <v>85</v>
       </c>
       <c r="P33" s="7"/>
@@ -2583,7 +2583,7 @@
     </row>
     <row r="34" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="20">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B34" s="16" t="s">
         <v>29</v>
@@ -2609,7 +2609,7 @@
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
       <c r="M34" s="4">
-        <f>SUM(C34:L34)</f>
+        <f t="shared" si="0"/>
         <v>85</v>
       </c>
       <c r="P34" s="7"/>
@@ -2617,7 +2617,7 @@
     </row>
     <row r="35" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="20">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B35" s="16" t="s">
         <v>42</v>
@@ -2643,7 +2643,7 @@
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
       <c r="M35" s="4">
-        <f>SUM(C35:L35)</f>
+        <f t="shared" si="0"/>
         <v>85</v>
       </c>
       <c r="P35" s="7"/>
@@ -2651,7 +2651,7 @@
     </row>
     <row r="36" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="20">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B36" s="16" t="s">
         <v>43</v>
@@ -2675,7 +2675,7 @@
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
       <c r="M36" s="4">
-        <f>SUM(C36:L36)</f>
+        <f t="shared" ref="M36:M67" si="1">SUM(C36:L36)</f>
         <v>85</v>
       </c>
       <c r="P36" s="7"/>
@@ -2683,7 +2683,7 @@
     </row>
     <row r="37" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="20">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B37" s="16" t="s">
         <v>70</v>
@@ -2707,7 +2707,7 @@
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
       <c r="M37" s="4">
-        <f>SUM(C37:L37)</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="P37" s="7"/>
@@ -2715,7 +2715,7 @@
     </row>
     <row r="38" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="20">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B38" s="16" t="s">
         <v>67</v>
@@ -2739,7 +2739,7 @@
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
       <c r="M38" s="4">
-        <f>SUM(C38:L38)</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="P38" s="7"/>
@@ -2747,7 +2747,7 @@
     </row>
     <row r="39" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="20">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B39" s="16" t="s">
         <v>46</v>
@@ -2773,7 +2773,7 @@
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
       <c r="M39" s="4">
-        <f>SUM(C39:L39)</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="P39" s="7"/>
@@ -2781,7 +2781,7 @@
     </row>
     <row r="40" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="20">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B40" s="16" t="s">
         <v>21</v>
@@ -2805,7 +2805,7 @@
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
       <c r="M40" s="4">
-        <f>SUM(C40:L40)</f>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="P40" s="7"/>
@@ -2813,7 +2813,7 @@
     </row>
     <row r="41" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="20">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B41" s="16" t="s">
         <v>14</v>
@@ -2837,7 +2837,7 @@
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
       <c r="M41" s="4">
-        <f>SUM(C41:L41)</f>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="P41" s="7"/>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="42" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42" s="20">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B42" s="16" t="s">
         <v>53</v>
@@ -2869,13 +2869,13 @@
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
       <c r="M42" s="4">
-        <f>SUM(C42:L42)</f>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="20">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B43" s="16" t="s">
         <v>39</v>
@@ -2903,7 +2903,7 @@
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
       <c r="M43" s="4">
-        <f>SUM(C43:L43)</f>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="P43" s="7"/>
@@ -2911,7 +2911,7 @@
     </row>
     <row r="44" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="20">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B44" s="16" t="s">
         <v>30</v>
@@ -2935,13 +2935,13 @@
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
       <c r="M44" s="4">
-        <f>SUM(C44:L44)</f>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="20">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B45" s="16" t="s">
         <v>52</v>
@@ -2965,13 +2965,13 @@
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
       <c r="M45" s="4">
-        <f>SUM(C45:L45)</f>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46" s="20">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B46" s="16" t="s">
         <v>25</v>
@@ -2995,13 +2995,13 @@
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
       <c r="M46" s="4">
-        <f>SUM(C46:L46)</f>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A47" s="20">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B47" s="16" t="s">
         <v>32</v>
@@ -3025,13 +3025,13 @@
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
       <c r="M47" s="4">
-        <f>SUM(C47:L47)</f>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="20">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B48" s="16" t="s">
         <v>17</v>
@@ -3055,13 +3055,13 @@
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
       <c r="M48" s="4">
-        <f>SUM(C48:L48)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A49" s="20">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B49" s="16" t="s">
         <v>34</v>
@@ -3087,13 +3087,13 @@
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
       <c r="M49" s="4">
-        <f>SUM(C49:L49)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A50" s="20">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B50" s="16" t="s">
         <v>22</v>
@@ -3117,13 +3117,13 @@
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
       <c r="M50" s="4">
-        <f>SUM(C50:L50)</f>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A51" s="20">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B51" s="17" t="s">
         <v>41</v>
@@ -3149,7 +3149,7 @@
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
       <c r="M51" s="4">
-        <f>SUM(C51:L51)</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="P51" s="7"/>
@@ -3157,7 +3157,7 @@
     </row>
     <row r="52" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A52" s="20">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B52" s="17" t="s">
         <v>28</v>
@@ -3181,13 +3181,13 @@
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
       <c r="M52" s="4">
-        <f>SUM(C52:L52)</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A53" s="20">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B53" s="16" t="s">
         <v>48</v>
@@ -3211,7 +3211,7 @@
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
       <c r="M53" s="4">
-        <f>SUM(C53:L53)</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="P53" s="7"/>
@@ -3219,7 +3219,7 @@
     </row>
     <row r="54" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A54" s="20">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B54" s="16" t="s">
         <v>40</v>
@@ -3247,7 +3247,7 @@
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
       <c r="M54" s="4">
-        <f>SUM(C54:L54)</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="P54" s="7"/>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="55" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A55" s="20">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B55" s="16" t="s">
         <v>77</v>
@@ -3281,7 +3281,7 @@
       <c r="K55" s="9"/>
       <c r="L55" s="9"/>
       <c r="M55" s="4">
-        <f>SUM(C55:L55)</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="P55" s="7"/>
@@ -3315,7 +3315,7 @@
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
       <c r="M56" s="4">
-        <f>SUM(C56:L56)</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="P56" s="7"/>
@@ -3349,7 +3349,7 @@
       <c r="K57" s="9"/>
       <c r="L57" s="9"/>
       <c r="M57" s="4">
-        <f>SUM(C57:L57)</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="P57" s="7"/>
@@ -3383,7 +3383,7 @@
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
       <c r="M58" s="4">
-        <f>SUM(C58:L58)</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="P58" s="7"/>
@@ -3413,7 +3413,7 @@
       <c r="K59" s="9"/>
       <c r="L59" s="9"/>
       <c r="M59" s="4">
-        <f>SUM(C59:L59)</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="P59" s="7"/>
@@ -3443,7 +3443,7 @@
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
       <c r="M60" s="4">
-        <f>SUM(C60:L60)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="P60" s="7"/>
@@ -3473,7 +3473,7 @@
       <c r="K61" s="9"/>
       <c r="L61" s="9"/>
       <c r="M61" s="4">
-        <f>SUM(C61:L61)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="P61" s="7"/>
@@ -3503,7 +3503,7 @@
       <c r="K62" s="9"/>
       <c r="L62" s="9"/>
       <c r="M62" s="4">
-        <f>SUM(C62:L62)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="P62" s="7"/>
@@ -3533,7 +3533,7 @@
       <c r="K63" s="9"/>
       <c r="L63" s="9"/>
       <c r="M63" s="4">
-        <f>SUM(C63:L63)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="P63" s="7"/>
@@ -3563,7 +3563,7 @@
       <c r="K64" s="9"/>
       <c r="L64" s="9"/>
       <c r="M64" s="4">
-        <f>SUM(C64:L64)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="P64" s="7"/>
@@ -3597,7 +3597,7 @@
       <c r="K65" s="9"/>
       <c r="L65" s="9"/>
       <c r="M65" s="4">
-        <f>SUM(C65:L65)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="P65" s="7"/>
@@ -3627,7 +3627,7 @@
       <c r="K66" s="9"/>
       <c r="L66" s="9"/>
       <c r="M66" s="4">
-        <f>SUM(C66:L66)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
@@ -3657,7 +3657,7 @@
       <c r="K67" s="9"/>
       <c r="L67" s="9"/>
       <c r="M67" s="4">
-        <f>SUM(C67:L67)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="P67" s="7"/>
@@ -3685,7 +3685,7 @@
       <c r="K68" s="9"/>
       <c r="L68" s="9"/>
       <c r="M68" s="4">
-        <f>SUM(C68:L68)</f>
+        <f t="shared" ref="M68:M99" si="2">SUM(C68:L68)</f>
         <v>20</v>
       </c>
       <c r="P68" s="7"/>
@@ -3717,7 +3717,7 @@
       <c r="K69" s="9"/>
       <c r="L69" s="9"/>
       <c r="M69" s="4">
-        <f>SUM(C69:L69)</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="P69" s="7"/>
@@ -3749,7 +3749,7 @@
       <c r="K70" s="9"/>
       <c r="L70" s="9"/>
       <c r="M70" s="4">
-        <f>SUM(C70:L70)</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="P70" s="7"/>
@@ -3781,7 +3781,7 @@
       <c r="K71" s="9"/>
       <c r="L71" s="9"/>
       <c r="M71" s="4">
-        <f>SUM(C71:L71)</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="P71" s="7"/>
@@ -3815,7 +3815,7 @@
       <c r="K72" s="9"/>
       <c r="L72" s="9"/>
       <c r="M72" s="4">
-        <f>SUM(C72:L72)</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="P72" s="7"/>
@@ -3847,7 +3847,7 @@
       <c r="K73" s="9"/>
       <c r="L73" s="9"/>
       <c r="M73" s="4">
-        <f>SUM(C73:L73)</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="P73" s="7"/>
@@ -3877,7 +3877,7 @@
       <c r="K74" s="9"/>
       <c r="L74" s="9"/>
       <c r="M74" s="4">
-        <f>SUM(C74:L74)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="P74" s="7"/>
@@ -3907,7 +3907,7 @@
       <c r="K75" s="9"/>
       <c r="L75" s="9"/>
       <c r="M75" s="4">
-        <f>SUM(C75:L75)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="P75" s="7"/>
@@ -3939,7 +3939,7 @@
       <c r="K76" s="9"/>
       <c r="L76" s="9"/>
       <c r="M76" s="4">
-        <f>SUM(C76:L76)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="P76" s="7"/>
@@ -3971,7 +3971,7 @@
       <c r="K77" s="9"/>
       <c r="L77" s="9"/>
       <c r="M77" s="4">
-        <f>SUM(C77:L77)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="P77" s="7"/>
@@ -3999,7 +3999,7 @@
       <c r="K78" s="9"/>
       <c r="L78" s="9"/>
       <c r="M78" s="4">
-        <f>SUM(C78:L78)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P78" s="7"/>
@@ -4027,7 +4027,7 @@
       <c r="K79" s="9"/>
       <c r="L79" s="9"/>
       <c r="M79" s="4">
-        <f>SUM(C79:L79)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P79" s="7"/>
@@ -4055,7 +4055,7 @@
       <c r="K80" s="9"/>
       <c r="L80" s="9"/>
       <c r="M80" s="4">
-        <f>SUM(C80:L80)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4081,7 +4081,7 @@
       <c r="K81" s="9"/>
       <c r="L81" s="9"/>
       <c r="M81" s="4">
-        <f>SUM(C81:L81)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P81" s="7"/>
@@ -4109,7 +4109,7 @@
       <c r="K82" s="9"/>
       <c r="L82" s="9"/>
       <c r="M82" s="4">
-        <f>SUM(C82:L82)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P82" s="7"/>
@@ -4137,7 +4137,7 @@
       <c r="K83" s="9"/>
       <c r="L83" s="9"/>
       <c r="M83" s="4">
-        <f>SUM(C83:L83)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P83" s="7"/>
@@ -4167,7 +4167,7 @@
       <c r="K84" s="9"/>
       <c r="L84" s="9"/>
       <c r="M84" s="4">
-        <f>SUM(C84:L84)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P84" s="7"/>
@@ -4197,7 +4197,7 @@
       <c r="K85" s="9"/>
       <c r="L85" s="9"/>
       <c r="M85" s="4">
-        <f>SUM(C85:L85)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P85" s="7"/>
